--- a/Repeat until condition is met example.xlsx
+++ b/Repeat until condition is met example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexThomson\Dropbox (SSD)\TPP Questionnaire ODK\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stats4sd-my.sharepoint.com/personal/alex_thomson_stats4sd_org/Documents/ODK Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BA80EC-CEAA-4BA8-8BD9-7C54865CE7B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{73BA80EC-CEAA-4BA8-8BD9-7C54865CE7B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C70F9132-06FA-483C-B2D1-67E184DF0D3C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{1B59B8E9-902C-4675-BAFC-F0B988D9479A}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" xr2:uid="{1B59B8E9-902C-4675-BAFC-F0B988D9479A}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>type</t>
   </si>
@@ -167,31 +167,33 @@
     <t>count(${repeat_group})</t>
   </si>
   <si>
-    <t>Will keep count of how many repeats are occuing (a cumulative tally)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the current count is 0 or the answer to add_person is yes within the current loop, a new loop is added. </t>
-  </si>
-  <si>
     <t>If the answer is no, no new loops will be created and will move to the next qeustion after the repeat.</t>
   </si>
   <si>
     <t xml:space="preserve">if(${count} = 0 or ${repeat_group}[position()=${count}]/add_person = 1, ${count}+1, ${count}) </t>
   </si>
   <si>
-    <t xml:space="preserve">${repeat_group}[position()=${count}]/add_person = 1 </t>
-  </si>
-  <si>
-    <t>RepeatGroup</t>
-  </si>
-  <si>
-    <t>this means question ${add_person} is equal to yes within the current loop (${count}) of the repeat group named ${repeat_group}</t>
-  </si>
-  <si>
     <t>Example of Repeating until condition is met</t>
   </si>
   <si>
     <t>example_2</t>
+  </si>
+  <si>
+    <t>Roster</t>
+  </si>
+  <si>
+    <t>This will keep count of how many repeat instances of repeat_group are being created. So while on the first instance, this equals 1. When a second instance is created. This will equal 2 etc.</t>
+  </si>
+  <si>
+    <t>You can set the repeat count to be conditional by using the if() function within ODK. 
+Here the condition is that either the current number of repeats is 0 or the value for add_person within the current repeat (position() = ${count}) is 1 ("Yes").
+If this condition is true, then the repeat count will increase by 1. (${count}+1)
+If this is false (i.e. add_person = 0) then the repeat count will be equal to its current value (${count})</t>
+  </si>
+  <si>
+    <t>It is recommended that you always use a question to determine the closing of the loop where possible.
+This is because of calculations being run constantly, so it can be quite easy for new loops to be triggered that are unnecessary.
+This of couse depends on the condition that closes your loop. If you must use a calculation, it would be wise to look into incoporating once() or using triggers for that calculation.</t>
   </si>
 </sst>
 </file>
@@ -651,9 +653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E7D873-2746-405F-A900-76854FB243C9}">
   <dimension ref="A1:J962"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +759,7 @@
         <v>French Translation</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -770,11 +772,11 @@
         <v>42</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -782,19 +784,21 @@
         <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>French Translation</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -819,11 +823,8 @@
         <v>French Translation</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -846,9 +847,6 @@
         <v>French Translation</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -892,7 +890,7 @@
         <v>French Translation</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J10" s="4"/>
     </row>
@@ -14231,7 +14229,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A9:XFD1048576 A7:H8 J7:XFD8 A1:XFD6">
+  <conditionalFormatting sqref="A9:XFD1048576 A1:XFD6 K7:XFD8 A7:I8">
     <cfRule type="expression" dxfId="3" priority="5">
       <formula xml:space="preserve"> $A1 = "end repeat"</formula>
     </cfRule>
@@ -14254,7 +14252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650F2481-8A5C-426A-BBB4-B3DBF82FF48B}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -14361,17 +14359,17 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2103081658</v>
+        <v>2104301328</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
